--- a/packages/ts/src/db/filter_stocks.xlsx
+++ b/packages/ts/src/db/filter_stocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="20240107smasmasma" sheetId="1" r:id="rId1"/>
+    <sheet name="20240108" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -606,28 +606,28 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>001239.SZ</v>
+        <v>001319.SZ</v>
       </c>
       <c r="B3" t="str">
-        <v>001239</v>
+        <v>001319</v>
       </c>
       <c r="C3" t="str">
-        <v>永达股份</v>
+        <v>铭科精技</v>
       </c>
       <c r="D3" t="str">
-        <v>湖南</v>
+        <v>广东</v>
       </c>
       <c r="E3" t="str">
-        <v>工程机械</v>
+        <v>汽车配件</v>
       </c>
       <c r="F3" t="str">
-        <v>湘潭永达机械制造股份有限公司</v>
+        <v>铭科精技控股股份有限公司</v>
       </c>
       <c r="G3" t="str">
-        <v>Xiangtan Yongda Machinery Manufacturing Co.,Ltd.</v>
+        <v>Winstech Precision Holding Co., Ltd.</v>
       </c>
       <c r="H3" t="str">
-        <v>ydgf</v>
+        <v>mkjj</v>
       </c>
       <c r="I3" t="str">
         <v>主板</v>
@@ -642,66 +642,93 @@
         <v>L</v>
       </c>
       <c r="M3" t="str">
-        <v>20231212</v>
+        <v>20220512</v>
+      </c>
+      <c r="N3" t="str">
+        <v/>
       </c>
       <c r="O3" t="str">
         <v>N</v>
       </c>
+      <c r="P3" t="str">
+        <v>夏录荣</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>外资企业</v>
+      </c>
       <c r="R3" t="str">
-        <v>001239</v>
+        <v>001319</v>
       </c>
       <c r="S3">
-        <v>22.3</v>
+        <v>23.48</v>
       </c>
       <c r="T3">
-        <v>23.18</v>
+        <v>24.03</v>
       </c>
       <c r="U3">
-        <v>21.6</v>
+        <v>22.43</v>
       </c>
       <c r="V3">
-        <v>22.43</v>
+        <v>23.6</v>
       </c>
       <c r="W3">
-        <v>10.717696288026794</v>
+        <v>14.39010866372981</v>
       </c>
       <c r="X3">
-        <v>22.41</v>
+        <v>23.49</v>
       </c>
       <c r="Y3">
-        <v>35.83</v>
+        <v>6.81</v>
       </c>
       <c r="Z3">
-        <v>171206</v>
+        <v>41524</v>
       </c>
       <c r="AA3" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB3" t="str">
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <v/>
+      </c>
+      <c r="AE3" t="str">
+        <v/>
+      </c>
+      <c r="AF3" t="str">
+        <v/>
+      </c>
+      <c r="AG3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>002272.SZ</v>
+        <v>002682.SZ</v>
       </c>
       <c r="B4" t="str">
-        <v>002272</v>
+        <v>002682</v>
       </c>
       <c r="C4" t="str">
-        <v>川润股份</v>
+        <v>龙洲股份</v>
       </c>
       <c r="D4" t="str">
-        <v>四川</v>
+        <v>福建</v>
       </c>
       <c r="E4" t="str">
-        <v>机械基件</v>
+        <v>仓储物流</v>
       </c>
       <c r="F4" t="str">
-        <v>四川川润股份有限公司</v>
+        <v>龙洲集团股份有限公司</v>
       </c>
       <c r="G4" t="str">
-        <v>Sichuan Crun Co.,Ltd</v>
+        <v>Longzhou Group Co.,Ltd.</v>
       </c>
       <c r="H4" t="str">
-        <v>crgf</v>
+        <v>lzgf</v>
       </c>
       <c r="I4" t="str">
         <v>主板</v>
@@ -716,75 +743,96 @@
         <v>L</v>
       </c>
       <c r="M4" t="str">
-        <v>20080919</v>
+        <v>20120612</v>
+      </c>
+      <c r="N4" t="str">
+        <v/>
       </c>
       <c r="O4" t="str">
         <v>N</v>
       </c>
       <c r="P4" t="str">
-        <v>罗丽华</v>
+        <v/>
       </c>
       <c r="Q4" t="str">
-        <v>民营企业</v>
+        <v/>
       </c>
       <c r="R4" t="str">
-        <v>002272</v>
+        <v>002682</v>
       </c>
       <c r="S4">
-        <v>6.6</v>
+        <v>6.36</v>
       </c>
       <c r="T4">
-        <v>6.79</v>
+        <v>6.54</v>
       </c>
       <c r="U4">
-        <v>6.45</v>
+        <v>6.11</v>
       </c>
       <c r="V4">
-        <v>6.57</v>
+        <v>6.42</v>
       </c>
       <c r="W4">
-        <v>22.021704334365328</v>
+        <v>36.09328209836066</v>
       </c>
       <c r="X4">
-        <v>6.65</v>
+        <v>6.33</v>
       </c>
       <c r="Y4">
-        <v>6.46</v>
+        <v>15.25</v>
       </c>
       <c r="Z4">
-        <v>216530</v>
+        <v>857356</v>
       </c>
       <c r="AA4" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>300232.SZ</v>
+        <v>003040.SZ</v>
       </c>
       <c r="B5" t="str">
-        <v>300232</v>
+        <v>003040</v>
       </c>
       <c r="C5" t="str">
-        <v>洲明科技</v>
+        <v>楚天龙</v>
       </c>
       <c r="D5" t="str">
-        <v>深圳</v>
+        <v>广东</v>
       </c>
       <c r="E5" t="str">
-        <v>元器件</v>
+        <v>通信设备</v>
       </c>
       <c r="F5" t="str">
-        <v>深圳市洲明科技股份有限公司</v>
+        <v>楚天龙股份有限公司</v>
       </c>
       <c r="G5" t="str">
-        <v>Unilumin Group Co., Ltd</v>
+        <v>Chutian Dragon Co.,Ltd.</v>
       </c>
       <c r="H5" t="str">
-        <v>zmkj</v>
+        <v>ctl</v>
       </c>
       <c r="I5" t="str">
-        <v>创业板</v>
+        <v>主板</v>
       </c>
       <c r="J5" t="str">
         <v>SZSE</v>
@@ -796,66 +844,93 @@
         <v>L</v>
       </c>
       <c r="M5" t="str">
-        <v>20110622</v>
+        <v>20210322</v>
+      </c>
+      <c r="N5" t="str">
+        <v/>
       </c>
       <c r="O5" t="str">
         <v>S</v>
       </c>
+      <c r="P5" t="str">
+        <v>苏晨</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>民营企业</v>
+      </c>
       <c r="R5" t="str">
-        <v>300232</v>
+        <v>003040</v>
       </c>
       <c r="S5">
-        <v>8.04</v>
+        <v>18.14</v>
       </c>
       <c r="T5">
-        <v>8.29</v>
+        <v>18.72</v>
       </c>
       <c r="U5">
-        <v>7.83</v>
+        <v>17.77</v>
       </c>
       <c r="V5">
-        <v>7.99</v>
+        <v>18.11</v>
       </c>
       <c r="W5">
-        <v>70.96157205720573</v>
+        <v>39.21034165605095</v>
       </c>
       <c r="X5">
-        <v>8.04</v>
+        <v>18.24</v>
       </c>
       <c r="Y5">
-        <v>9.09</v>
+        <v>7.85</v>
       </c>
       <c r="Z5">
-        <v>807310</v>
+        <v>169962</v>
       </c>
       <c r="AA5" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>300793.SZ</v>
+        <v>300290.SZ</v>
       </c>
       <c r="B6" t="str">
-        <v>300793</v>
+        <v>300290</v>
       </c>
       <c r="C6" t="str">
-        <v>佳禾智能</v>
+        <v>荣科科技</v>
       </c>
       <c r="D6" t="str">
-        <v>广东</v>
+        <v>辽宁</v>
       </c>
       <c r="E6" t="str">
-        <v>IT设备</v>
+        <v>软件服务</v>
       </c>
       <c r="F6" t="str">
-        <v>佳禾智能科技股份有限公司</v>
+        <v>荣科科技股份有限公司</v>
       </c>
       <c r="G6" t="str">
-        <v>Cosonic Intelligent Technologies Co., Ltd.</v>
+        <v>Bringspring Science and Technology Co.,Ltd.</v>
       </c>
       <c r="H6" t="str">
-        <v>jhzn</v>
+        <v>rkkj</v>
       </c>
       <c r="I6" t="str">
         <v>创业板</v>
@@ -870,66 +945,93 @@
         <v>L</v>
       </c>
       <c r="M6" t="str">
-        <v>20191018</v>
+        <v>20120216</v>
+      </c>
+      <c r="N6" t="str">
+        <v/>
       </c>
       <c r="O6" t="str">
-        <v>S</v>
+        <v>N</v>
+      </c>
+      <c r="P6" t="str">
+        <v>河南省财政厅</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>地方国企</v>
       </c>
       <c r="R6" t="str">
-        <v>300793</v>
+        <v>300290</v>
       </c>
       <c r="S6">
-        <v>20.16</v>
+        <v>6.2</v>
       </c>
       <c r="T6">
-        <v>21.07</v>
+        <v>6.43</v>
       </c>
       <c r="U6">
-        <v>19.73</v>
+        <v>6.06</v>
       </c>
       <c r="V6">
-        <v>20.23</v>
+        <v>6.19</v>
       </c>
       <c r="W6">
-        <v>66.73683398058253</v>
+        <v>39.57058459893049</v>
       </c>
       <c r="X6">
-        <v>20.41</v>
+        <v>6.29</v>
       </c>
       <c r="Y6">
-        <v>7.21</v>
+        <v>9.35</v>
       </c>
       <c r="Z6">
-        <v>237851</v>
+        <v>597714</v>
       </c>
       <c r="AA6" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6" t="str">
+        <v/>
+      </c>
+      <c r="AD6" t="str">
+        <v/>
+      </c>
+      <c r="AE6" t="str">
+        <v/>
+      </c>
+      <c r="AF6" t="str">
+        <v/>
+      </c>
+      <c r="AG6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>300926.SZ</v>
+        <v>300486.SZ</v>
       </c>
       <c r="B7" t="str">
-        <v>300926</v>
+        <v>300486</v>
       </c>
       <c r="C7" t="str">
-        <v>博俊科技</v>
+        <v>东杰智能</v>
       </c>
       <c r="D7" t="str">
-        <v>江苏</v>
+        <v>山西</v>
       </c>
       <c r="E7" t="str">
-        <v>汽车配件</v>
+        <v>专用机械</v>
       </c>
       <c r="F7" t="str">
-        <v>江苏博俊工业科技股份有限公司</v>
+        <v>东杰智能科技集团股份有限公司</v>
       </c>
       <c r="G7" t="str">
-        <v>Jiangsu Bojun Industrial Technology Co., Ltd.</v>
+        <v>Omh Science Group Co., Ltd</v>
       </c>
       <c r="H7" t="str">
-        <v>bjkj</v>
+        <v>djzn</v>
       </c>
       <c r="I7" t="str">
         <v>创业板</v>
@@ -944,78 +1046,99 @@
         <v>L</v>
       </c>
       <c r="M7" t="str">
-        <v>20210107</v>
+        <v>20150630</v>
+      </c>
+      <c r="N7" t="str">
+        <v/>
       </c>
       <c r="O7" t="str">
-        <v>S</v>
+        <v>N</v>
       </c>
       <c r="P7" t="str">
-        <v>伍亚林</v>
+        <v>淄博市财政局</v>
       </c>
       <c r="Q7" t="str">
-        <v>民营企业</v>
+        <v>地方国企</v>
       </c>
       <c r="R7" t="str">
-        <v>300926</v>
+        <v>300486</v>
       </c>
       <c r="S7">
-        <v>27.61</v>
+        <v>6.73</v>
       </c>
       <c r="T7">
-        <v>28.5</v>
+        <v>6.99</v>
       </c>
       <c r="U7">
-        <v>27</v>
+        <v>6.57</v>
       </c>
       <c r="V7">
-        <v>27.78</v>
+        <v>6.78</v>
       </c>
       <c r="W7">
-        <v>19.511684638554215</v>
+        <v>26.623365</v>
       </c>
       <c r="X7">
-        <v>27.97</v>
+        <v>6.8</v>
       </c>
       <c r="Y7">
-        <v>6.64</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>46637</v>
+        <v>157070</v>
       </c>
       <c r="AA7" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7" t="str">
+        <v/>
+      </c>
+      <c r="AD7" t="str">
+        <v/>
+      </c>
+      <c r="AE7" t="str">
+        <v/>
+      </c>
+      <c r="AF7" t="str">
+        <v/>
+      </c>
+      <c r="AG7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>600792.SH</v>
+        <v>300969.SZ</v>
       </c>
       <c r="B8" t="str">
-        <v>600792</v>
+        <v>300969</v>
       </c>
       <c r="C8" t="str">
-        <v>云煤能源</v>
+        <v>恒帅股份</v>
       </c>
       <c r="D8" t="str">
-        <v>云南</v>
+        <v>浙江</v>
       </c>
       <c r="E8" t="str">
-        <v>焦炭加工</v>
+        <v>汽车配件</v>
       </c>
       <c r="F8" t="str">
-        <v>云南煤业能源股份有限公司</v>
+        <v>宁波恒帅股份有限公司</v>
       </c>
       <c r="G8" t="str">
-        <v>Yunnan Coal &amp; Energy Co.,Ltd.</v>
+        <v>Ningbo Hengshuai Co.,Ltd.</v>
       </c>
       <c r="H8" t="str">
-        <v>ymny</v>
+        <v>hsgf</v>
       </c>
       <c r="I8" t="str">
-        <v>主板</v>
+        <v>创业板</v>
       </c>
       <c r="J8" t="str">
-        <v>SSE</v>
+        <v>SZSE</v>
       </c>
       <c r="K8" t="str">
         <v>CNY</v>
@@ -1024,72 +1147,99 @@
         <v>L</v>
       </c>
       <c r="M8" t="str">
-        <v>19970123</v>
+        <v>20210412</v>
+      </c>
+      <c r="N8" t="str">
+        <v/>
       </c>
       <c r="O8" t="str">
-        <v>N</v>
+        <v>S</v>
+      </c>
+      <c r="P8" t="str">
+        <v>许宁宁</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>民营企业</v>
       </c>
       <c r="R8" t="str">
-        <v>600792</v>
+        <v>300969</v>
       </c>
       <c r="S8">
-        <v>5.57</v>
+        <v>83.5</v>
       </c>
       <c r="T8">
-        <v>5.84</v>
+        <v>85.46</v>
       </c>
       <c r="U8">
-        <v>5.36</v>
+        <v>81.74</v>
       </c>
       <c r="V8">
-        <v>5.6</v>
+        <v>83.78</v>
       </c>
       <c r="W8">
-        <v>55.44906861848124</v>
+        <v>16.759685337243404</v>
       </c>
       <c r="X8">
-        <v>5.55</v>
+        <v>84.19</v>
       </c>
       <c r="Y8">
-        <v>10.93</v>
+        <v>6.82</v>
       </c>
       <c r="Z8">
-        <v>1082247</v>
+        <v>13643</v>
       </c>
       <c r="AA8" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB8" t="str">
+        <v/>
+      </c>
+      <c r="AC8" t="str">
+        <v/>
+      </c>
+      <c r="AD8" t="str">
+        <v/>
+      </c>
+      <c r="AE8" t="str">
+        <v/>
+      </c>
+      <c r="AF8" t="str">
+        <v/>
+      </c>
+      <c r="AG8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>601188.SH</v>
+        <v>301428.SZ</v>
       </c>
       <c r="B9" t="str">
-        <v>601188</v>
+        <v>301428</v>
       </c>
       <c r="C9" t="str">
-        <v>龙江交通</v>
+        <v>世纪恒通</v>
       </c>
       <c r="D9" t="str">
-        <v>黑龙江</v>
+        <v>贵州</v>
       </c>
       <c r="E9" t="str">
-        <v>路桥</v>
+        <v>互联网</v>
       </c>
       <c r="F9" t="str">
-        <v>黑龙江交通发展股份有限公司</v>
+        <v>世纪恒通科技股份有限公司</v>
       </c>
       <c r="G9" t="str">
-        <v>Heilongjiang Transport Development Co.,Ltd</v>
+        <v>Shijihengtong Technology Co., Ltd.</v>
       </c>
       <c r="H9" t="str">
-        <v>ljjt</v>
+        <v>sjht</v>
       </c>
       <c r="I9" t="str">
-        <v>主板</v>
+        <v>创业板</v>
       </c>
       <c r="J9" t="str">
-        <v>SSE</v>
+        <v>SZSE</v>
       </c>
       <c r="K9" t="str">
         <v>CNY</v>
@@ -1098,78 +1248,99 @@
         <v>L</v>
       </c>
       <c r="M9" t="str">
-        <v>20100319</v>
+        <v>20230519</v>
+      </c>
+      <c r="N9" t="str">
+        <v/>
       </c>
       <c r="O9" t="str">
         <v>N</v>
       </c>
       <c r="P9" t="str">
-        <v>黑龙江省人民政府国有资产监督管理委员会</v>
+        <v>杨兴海</v>
       </c>
       <c r="Q9" t="str">
-        <v>地方国企</v>
+        <v>民营企业</v>
       </c>
       <c r="R9" t="str">
-        <v>601188</v>
+        <v>301428</v>
       </c>
       <c r="S9">
-        <v>4.57</v>
+        <v>38.39</v>
       </c>
       <c r="T9">
-        <v>4.8</v>
+        <v>39.51</v>
       </c>
       <c r="U9">
-        <v>4.46</v>
+        <v>37.08</v>
       </c>
       <c r="V9">
-        <v>4.54</v>
+        <v>38.27</v>
       </c>
       <c r="W9">
-        <v>59.72935436363637</v>
+        <v>9.439933333333334</v>
       </c>
       <c r="X9">
-        <v>4.63</v>
+        <v>38.4</v>
       </c>
       <c r="Y9">
-        <v>11</v>
+        <v>14.37</v>
       </c>
       <c r="Z9">
-        <v>1447187</v>
+        <v>35446</v>
       </c>
       <c r="AA9" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB9" t="str">
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>603663.SH</v>
+        <v>301511.SZ</v>
       </c>
       <c r="B10" t="str">
-        <v>603663</v>
+        <v>301511</v>
       </c>
       <c r="C10" t="str">
-        <v>三祥新材</v>
+        <v>德福科技</v>
       </c>
       <c r="D10" t="str">
-        <v>福建</v>
+        <v>江西</v>
       </c>
       <c r="E10" t="str">
-        <v>小金属</v>
+        <v>电气设备</v>
       </c>
       <c r="F10" t="str">
-        <v>三祥新材股份有限公司</v>
+        <v>九江德福科技股份有限公司</v>
       </c>
       <c r="G10" t="str">
-        <v>Sanxiang Advanced Materials Co., Ltd.</v>
+        <v>Jiujiang Defu Technology Co., Ltd.</v>
       </c>
       <c r="H10" t="str">
-        <v>sxxc</v>
+        <v>dfkj</v>
       </c>
       <c r="I10" t="str">
-        <v>主板</v>
+        <v>创业板</v>
       </c>
       <c r="J10" t="str">
-        <v>SSE</v>
+        <v>SZSE</v>
       </c>
       <c r="K10" t="str">
         <v>CNY</v>
@@ -1178,66 +1349,93 @@
         <v>L</v>
       </c>
       <c r="M10" t="str">
-        <v>20160801</v>
+        <v>20230817</v>
+      </c>
+      <c r="N10" t="str">
+        <v/>
       </c>
       <c r="O10" t="str">
-        <v>N</v>
+        <v>S</v>
+      </c>
+      <c r="P10" t="str">
+        <v>马科</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>民营企业</v>
       </c>
       <c r="R10" t="str">
-        <v>603663</v>
+        <v>301511</v>
       </c>
       <c r="S10">
-        <v>11.43</v>
+        <v>27.71</v>
       </c>
       <c r="T10">
-        <v>11.92</v>
+        <v>29.98</v>
       </c>
       <c r="U10">
-        <v>11.13</v>
+        <v>26.6</v>
       </c>
       <c r="V10">
-        <v>11.53</v>
+        <v>27.92</v>
       </c>
       <c r="W10">
-        <v>48.70679793536804</v>
+        <v>16.23583500373972</v>
       </c>
       <c r="X10">
-        <v>11.64</v>
+        <v>28.38</v>
       </c>
       <c r="Y10">
-        <v>11.14</v>
+        <v>53.48</v>
       </c>
       <c r="Z10">
-        <v>470593</v>
+        <v>310993</v>
       </c>
       <c r="AA10" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB10" t="str">
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>605259.SH</v>
+        <v>600892.SH</v>
       </c>
       <c r="B11" t="str">
-        <v>605259</v>
+        <v>600892</v>
       </c>
       <c r="C11" t="str">
-        <v>绿田机械</v>
+        <v>大晟文化</v>
       </c>
       <c r="D11" t="str">
-        <v>浙江</v>
+        <v>深圳</v>
       </c>
       <c r="E11" t="str">
-        <v>农用机械</v>
+        <v>互联网</v>
       </c>
       <c r="F11" t="str">
-        <v>绿田机械股份有限公司</v>
+        <v>大晟时代文化投资股份有限公司</v>
       </c>
       <c r="G11" t="str">
-        <v>Lutian Machinery Co., Ltd.</v>
+        <v>Dasheng Times Cultural Investment Co.,Ltd.</v>
       </c>
       <c r="H11" t="str">
-        <v>ltjx</v>
+        <v>dswh</v>
       </c>
       <c r="I11" t="str">
         <v>主板</v>
@@ -1252,72 +1450,93 @@
         <v>L</v>
       </c>
       <c r="M11" t="str">
-        <v>20210615</v>
+        <v>19960315</v>
+      </c>
+      <c r="N11" t="str">
+        <v/>
       </c>
       <c r="O11" t="str">
         <v>N</v>
       </c>
       <c r="P11" t="str">
-        <v>罗昌国</v>
+        <v>中国华星集团有限公司(香港)</v>
       </c>
       <c r="Q11" t="str">
-        <v>民营企业</v>
+        <v>中央国企</v>
       </c>
       <c r="R11" t="str">
-        <v>605259</v>
+        <v>600892</v>
       </c>
       <c r="S11">
-        <v>23.1</v>
+        <v>5.99</v>
       </c>
       <c r="T11">
-        <v>23.59</v>
+        <v>6.26</v>
       </c>
       <c r="U11">
-        <v>22.55</v>
+        <v>5.78</v>
       </c>
       <c r="V11">
-        <v>23.1</v>
+        <v>5.99</v>
       </c>
       <c r="W11">
-        <v>12.41289677419355</v>
+        <v>33.4883558854719</v>
       </c>
       <c r="X11">
-        <v>23.17</v>
+        <v>6.03</v>
       </c>
       <c r="Y11">
-        <v>3.1</v>
+        <v>9.43</v>
       </c>
       <c r="Z11">
-        <v>16658</v>
+        <v>527204</v>
       </c>
       <c r="AA11" t="str">
-        <v>20240105</v>
+        <v>20240108</v>
+      </c>
+      <c r="AB11" t="str">
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>605289.SH</v>
+        <v>603779.SH</v>
       </c>
       <c r="B12" t="str">
-        <v>605289</v>
+        <v>603779</v>
       </c>
       <c r="C12" t="str">
-        <v>罗曼股份</v>
+        <v>威龙股份</v>
       </c>
       <c r="D12" t="str">
-        <v>上海</v>
+        <v>山东</v>
       </c>
       <c r="E12" t="str">
-        <v>建筑工程</v>
+        <v>红黄酒</v>
       </c>
       <c r="F12" t="str">
-        <v>上海罗曼照明科技股份有限公司</v>
+        <v>威龙葡萄酒股份有限公司</v>
       </c>
       <c r="G12" t="str">
-        <v>Shanghai Luoman Lighting Technologies Inc.</v>
+        <v>Weilong Grape Wine Co., Ltd</v>
       </c>
       <c r="H12" t="str">
-        <v>lmgf</v>
+        <v>wlgf</v>
       </c>
       <c r="I12" t="str">
         <v>主板</v>
@@ -1332,51 +1551,173 @@
         <v>L</v>
       </c>
       <c r="M12" t="str">
-        <v>20210426</v>
+        <v>20160516</v>
+      </c>
+      <c r="N12" t="str">
+        <v/>
       </c>
       <c r="O12" t="str">
         <v>N</v>
       </c>
       <c r="P12" t="str">
-        <v>孙建鸣</v>
+        <v>无实际控制人</v>
       </c>
       <c r="Q12" t="str">
+        <v>无</v>
+      </c>
+      <c r="R12" t="str">
+        <v>603779</v>
+      </c>
+      <c r="S12">
+        <v>9.43</v>
+      </c>
+      <c r="T12">
+        <v>9.64</v>
+      </c>
+      <c r="U12">
+        <v>8.97</v>
+      </c>
+      <c r="V12">
+        <v>9.41</v>
+      </c>
+      <c r="W12">
+        <v>31.30175827250608</v>
+      </c>
+      <c r="X12">
+        <v>9.28</v>
+      </c>
+      <c r="Y12">
+        <v>8.22</v>
+      </c>
+      <c r="Z12">
+        <v>273433</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>20240108</v>
+      </c>
+      <c r="AB12" t="str">
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <v/>
+      </c>
+      <c r="AF12" t="str">
+        <v/>
+      </c>
+      <c r="AG12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>605178.SH</v>
+      </c>
+      <c r="B13" t="str">
+        <v>605178</v>
+      </c>
+      <c r="C13" t="str">
+        <v>时空科技</v>
+      </c>
+      <c r="D13" t="str">
+        <v>北京</v>
+      </c>
+      <c r="E13" t="str">
+        <v>装修装饰</v>
+      </c>
+      <c r="F13" t="str">
+        <v>北京新时空科技股份有限公司</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Beijing New Space Technology Co., Ltd.</v>
+      </c>
+      <c r="H13" t="str">
+        <v>skkj</v>
+      </c>
+      <c r="I13" t="str">
+        <v>主板</v>
+      </c>
+      <c r="J13" t="str">
+        <v>SSE</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CNY</v>
+      </c>
+      <c r="L13" t="str">
+        <v>L</v>
+      </c>
+      <c r="M13" t="str">
+        <v>20200821</v>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <v>N</v>
+      </c>
+      <c r="P13" t="str">
+        <v>宫殿海</v>
+      </c>
+      <c r="Q13" t="str">
         <v>民营企业</v>
       </c>
-      <c r="R12" t="str">
-        <v>605289</v>
-      </c>
-      <c r="S12">
-        <v>52.35</v>
-      </c>
-      <c r="T12">
-        <v>53.77</v>
-      </c>
-      <c r="U12">
-        <v>51.05</v>
-      </c>
-      <c r="V12">
-        <v>52</v>
-      </c>
-      <c r="W12">
-        <v>26.30674747474747</v>
-      </c>
-      <c r="X12">
-        <v>52.36</v>
-      </c>
-      <c r="Y12">
-        <v>4.95</v>
-      </c>
-      <c r="Z12">
-        <v>25042</v>
-      </c>
-      <c r="AA12" t="str">
-        <v>20240105</v>
+      <c r="R13" t="str">
+        <v>605178</v>
+      </c>
+      <c r="S13">
+        <v>22.69</v>
+      </c>
+      <c r="T13">
+        <v>23.2</v>
+      </c>
+      <c r="U13">
+        <v>21.99</v>
+      </c>
+      <c r="V13">
+        <v>22.62</v>
+      </c>
+      <c r="W13">
+        <v>14.046822680412372</v>
+      </c>
+      <c r="X13">
+        <v>22.51</v>
+      </c>
+      <c r="Y13">
+        <v>12.61</v>
+      </c>
+      <c r="Z13">
+        <v>78307</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>20240108</v>
+      </c>
+      <c r="AB13" t="str">
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AG12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AG13"/>
   </ignoredErrors>
 </worksheet>
 </file>